--- a/TooManyKeys/Diagrams/Updated T-1N2W367723A-W367723AS1N1-1sets-TooManyKeys2.html 2021-2-5.xlsx
+++ b/TooManyKeys/Diagrams/Updated T-1N2W367723A-W367723AS1N1-1sets-TooManyKeys2.html 2021-2-5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CustomPcbs\TooManyKeys\Diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12DD4E1-E743-4A0F-9F0D-9D1FA26708AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A808521D-6E8B-4090-B570-EB2CE4B45372}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="140">
   <si>
     <t>C:\Git\CustomPcbs\TooManyKeys\KiCad\TooManyKeys.sch</t>
   </si>
@@ -484,13 +484,16 @@
   <si>
     <t>https://media.digikey.com/pdf/Data%20Sheets/NDK%20PDFs/NX3225SA.pdf</t>
   </si>
+  <si>
+    <t>PCA9306TDCURQ1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="\$#,##0.000;\-\$#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.000;\-\$#,##0.000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -598,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -624,7 +627,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -645,7 +648,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -932,7 +935,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1781,6 +1784,9 @@
       <c r="K34" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="L34" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="13" t="s">
